--- a/examples/waiting_lines/mmk1.xlsx
+++ b/examples/waiting_lines/mmk1.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
     <t xml:space="preserve">Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
   </si>
   <si>
     <t xml:space="preserve">λ</t>
@@ -430,11 +433,11 @@
   </sheetPr>
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" customWidth="true" hidden="false" style="0" width="13.11" collapsed="true" outlineLevel="1"/>
     <col min="2" max="2" customWidth="true" hidden="false" style="0" width="11.52" collapsed="true" outlineLevel="1"/>
@@ -451,115 +454,117 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>30.0</v>
+        <v>72.0</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="16" t="n">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="n">
         <f aca="false">1/(VLOOKUP(B4-1,A17:B41,2,0)+A15)</f>
         <v>0.25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="n">
         <f aca="false">1/FACT(B4)*(A13^B4)*A14*B5</f>
-        <v>0.75</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6" t="n">
         <f aca="false">B2/(B4*B3)</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="n">
         <f aca="false">A13^B4*B2*B3/(FACT(B4-1)*(B4*B3-B2)^2)*B5</f>
-        <v>2.25</v>
+        <v>0.6749999999999999</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="n">
         <f aca="false">A13+B8</f>
-        <v>3.0</v>
+        <v>1.875</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="n">
         <f aca="false">B8/B2</f>
-        <v>0.075</v>
+        <v>0.009375</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -569,14 +574,14 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="n">
         <f aca="false">1/B3</f>
-        <v>0.025</v>
+        <v>0.016666666666666666</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -586,14 +591,14 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="n">
         <f aca="false">B10+B11</f>
-        <v>0.1</v>
+        <v>0.026041666666666664</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -604,7 +609,7 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <f aca="false">B2/B3</f>
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -617,7 +622,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <f aca="false">B4*B3/(B4*B3-B2)</f>
-        <v>4.0</v>
+        <v>2.5</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -630,7 +635,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <f aca="false">((A13^B4)/FACT(B4))*A14</f>
-        <v>3.0</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -642,24 +647,24 @@
     </row>
     <row r="16" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -677,7 +682,7 @@
       </c>
       <c r="E17" s="3" t="n">
         <f aca="false">($A$13^$A17/(FACT($B$4)*($B$4^($A17-$B$4))))*$B$5</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="12" t="n">
         <v>0</v>
@@ -697,27 +702,27 @@
       </c>
       <c r="B18" s="3" t="n">
         <f aca="false">B17+A$13^A18/FACT(A18)</f>
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="n">
         <f aca="false">($A$13^$A18/FACT($A18))*$B$5</f>
-        <v>0.1875</v>
+        <v>0.3</v>
       </c>
       <c r="E18" s="3" t="n">
         <f aca="false">($A$13^$A18/(FACT($B$4)*($B$4^($A18-$B$4))))*$B$5</f>
-        <v>0.1875</v>
+        <v>0.3</v>
       </c>
       <c r="F18" s="12" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="13" t="n">
         <f aca="false">IF($A18&lt;=$B$4,D18,E18)</f>
-        <v>0.1875</v>
+        <v>0.3</v>
       </c>
       <c r="H18" s="14" t="n">
         <f aca="false">G18+H17</f>
-        <v>0.4375</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -726,27 +731,27 @@
       </c>
       <c r="B19" s="3" t="n">
         <f aca="false">B18+A$13^A19/FACT(A19)</f>
-        <v>2.03125</v>
+        <v>2.92</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="n">
         <f aca="false">($A$13^$A19/FACT($A19))*$B$5</f>
-        <v>0.0703125</v>
+        <v>0.18</v>
       </c>
       <c r="E19" s="3" t="n">
         <f aca="false">($A$13^$A19/(FACT($B$4)*($B$4^($A19-$B$4))))*$B$5</f>
-        <v>0.140625</v>
+        <v>0.18</v>
       </c>
       <c r="F19" s="12" t="n">
         <v>2</v>
       </c>
       <c r="G19" s="13" t="n">
         <f aca="false">IF($A19&lt;=$B$4,D19,E19)</f>
-        <v>0.140625</v>
+        <v>0.18</v>
       </c>
       <c r="H19" s="14" t="n">
         <f aca="false">G19+H18</f>
-        <v>0.578125</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -755,27 +760,27 @@
       </c>
       <c r="B20" s="3" t="n">
         <f aca="false">B19+A$13^A20/FACT(A20)</f>
-        <v>2.1015625</v>
+        <v>3.2079999999999997</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="n">
         <f aca="false">($A$13^$A20/FACT($A20))*$B$5</f>
-        <v>0.017578125</v>
+        <v>0.072</v>
       </c>
       <c r="E20" s="3" t="n">
         <f aca="false">($A$13^$A20/(FACT($B$4)*($B$4^($A20-$B$4))))*$B$5</f>
-        <v>0.10546875</v>
+        <v>0.10799999999999998</v>
       </c>
       <c r="F20" s="12" t="n">
         <v>3</v>
       </c>
       <c r="G20" s="13" t="n">
         <f aca="false">IF($A20&lt;=$B$4,D20,E20)</f>
-        <v>0.10546875</v>
+        <v>0.10799999999999998</v>
       </c>
       <c r="H20" s="14" t="n">
         <f aca="false">G20+H19</f>
-        <v>0.68359375</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -784,27 +789,27 @@
       </c>
       <c r="B21" s="3" t="n">
         <f aca="false">B20+A$13^A21/FACT(A21)</f>
-        <v>2.11474609375</v>
+        <v>3.2943999999999996</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="n">
         <f aca="false">($A$13^$A21/FACT($A21))*$B$5</f>
-        <v>0.0032958984375</v>
+        <v>0.021599999999999998</v>
       </c>
       <c r="E21" s="3" t="n">
         <f aca="false">($A$13^$A21/(FACT($B$4)*($B$4^($A21-$B$4))))*$B$5</f>
-        <v>0.0791015625</v>
+        <v>0.0648</v>
       </c>
       <c r="F21" s="12" t="n">
         <v>4</v>
       </c>
       <c r="G21" s="13" t="n">
         <f aca="false">IF($A21&lt;=$B$4,D21,E21)</f>
-        <v>0.0791015625</v>
+        <v>0.0648</v>
       </c>
       <c r="H21" s="14" t="n">
         <f aca="false">G21+H20</f>
-        <v>0.7626953125</v>
+        <v>0.9027999999999999</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -813,27 +818,27 @@
       </c>
       <c r="B22" s="3" t="n">
         <f aca="false">B21+A$13^A22/FACT(A22)</f>
-        <v>2.1167236328125</v>
+        <v>3.3151359999999994</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="n">
         <f aca="false">($A$13^$A22/FACT($A22))*$B$5</f>
-        <v>4.94384765625E-4</v>
+        <v>0.0051839999999999985</v>
       </c>
       <c r="E22" s="3" t="n">
         <f aca="false">($A$13^$A22/(FACT($B$4)*($B$4^($A22-$B$4))))*$B$5</f>
-        <v>0.059326171875</v>
+        <v>0.03887999999999999</v>
       </c>
       <c r="F22" s="12" t="n">
         <v>5</v>
       </c>
       <c r="G22" s="13" t="n">
         <f aca="false">IF($A22&lt;=$B$4,D22,E22)</f>
-        <v>0.059326171875</v>
+        <v>0.03887999999999999</v>
       </c>
       <c r="H22" s="14" t="n">
         <f aca="false">G22+H21</f>
-        <v>0.822021484375</v>
+        <v>0.94168</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -842,27 +847,27 @@
       </c>
       <c r="B23" s="3" t="n">
         <f aca="false">B22+A$13^A23/FACT(A23)</f>
-        <v>2.1169708251953128</v>
+        <v>3.319283199999999</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="n">
         <f aca="false">($A$13^$A23/FACT($A23))*$B$5</f>
-        <v>6.1798095703125E-5</v>
+        <v>0.0010367999999999998</v>
       </c>
       <c r="E23" s="3" t="n">
         <f aca="false">($A$13^$A23/(FACT($B$4)*($B$4^($A23-$B$4))))*$B$5</f>
-        <v>0.04449462890625</v>
+        <v>0.023327999999999995</v>
       </c>
       <c r="F23" s="12" t="n">
         <v>6</v>
       </c>
       <c r="G23" s="13" t="n">
         <f aca="false">IF($A23&lt;=$B$4,D23,E23)</f>
-        <v>0.04449462890625</v>
+        <v>0.023327999999999995</v>
       </c>
       <c r="H23" s="14" t="n">
         <f aca="false">G23+H22</f>
-        <v>0.86651611328125</v>
+        <v>0.965008</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -871,27 +876,27 @@
       </c>
       <c r="B24" s="3" t="n">
         <f aca="false">B23+A$13^A24/FACT(A24)</f>
-        <v>2.1169973100934714</v>
+        <v>3.319994148571428</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="n">
         <f aca="false">($A$13^$A24/FACT($A24))*$B$5</f>
-        <v>6.621224539620536E-6</v>
+        <v>1.777371428571428E-4</v>
       </c>
       <c r="E24" s="3" t="n">
         <f aca="false">($A$13^$A24/(FACT($B$4)*($B$4^($A24-$B$4))))*$B$5</f>
-        <v>0.0333709716796875</v>
+        <v>0.013996799999999997</v>
       </c>
       <c r="F24" s="12" t="n">
         <v>7</v>
       </c>
       <c r="G24" s="13" t="n">
         <f aca="false">IF($A24&lt;=$B$4,D24,E24)</f>
-        <v>0.0333709716796875</v>
+        <v>0.013996799999999997</v>
       </c>
       <c r="H24" s="14" t="n">
         <f aca="false">G24+H23</f>
-        <v>0.8998870849609375</v>
+        <v>0.9790048</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -900,27 +905,27 @@
       </c>
       <c r="B25" s="3" t="n">
         <f aca="false">B24+A$13^A25/FACT(A25)</f>
-        <v>2.1169997930526736</v>
+        <v>3.320100790857142</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="n">
         <f aca="false">($A$13^$A25/FACT($A25))*$B$5</f>
-        <v>6.207398005894252E-7</v>
+        <v>2.6660571428571418E-5</v>
       </c>
       <c r="E25" s="3" t="n">
         <f aca="false">($A$13^$A25/(FACT($B$4)*($B$4^($A25-$B$4))))*$B$5</f>
-        <v>0.025028228759765625</v>
+        <v>0.008398079999999997</v>
       </c>
       <c r="F25" s="12" t="n">
         <v>8</v>
       </c>
       <c r="G25" s="13" t="n">
         <f aca="false">IF($A25&lt;=$B$4,D25,E25)</f>
-        <v>0.025028228759765625</v>
+        <v>0.008398079999999997</v>
       </c>
       <c r="H25" s="14" t="n">
         <f aca="false">G25+H24</f>
-        <v>0.9249153137207031</v>
+        <v>0.98740288</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -929,27 +934,27 @@
       </c>
       <c r="B26" s="3" t="n">
         <f aca="false">B25+A$13^A26/FACT(A26)</f>
-        <v>2.1169999999659406</v>
+        <v>3.3201150098285708</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="n">
         <f aca="false">($A$13^$A26/FACT($A26))*$B$5</f>
-        <v>5.172831671578544E-8</v>
+        <v>3.5547428571428563E-6</v>
       </c>
       <c r="E26" s="3" t="n">
         <f aca="false">($A$13^$A26/(FACT($B$4)*($B$4^($A26-$B$4))))*$B$5</f>
-        <v>0.01877117156982422</v>
+        <v>0.0050388479999999986</v>
       </c>
       <c r="F26" s="12" t="n">
         <v>9</v>
       </c>
       <c r="G26" s="13" t="n">
         <f aca="false">IF($A26&lt;=$B$4,D26,E26)</f>
-        <v>0.01877117156982422</v>
+        <v>0.0050388479999999986</v>
       </c>
       <c r="H26" s="14" t="n">
         <f aca="false">G26+H25</f>
-        <v>0.9436864852905273</v>
+        <v>0.992441728</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -958,27 +963,27 @@
       </c>
       <c r="B27" s="3" t="n">
         <f aca="false">B26+A$13^A27/FACT(A27)</f>
-        <v>2.1170000154844355</v>
+        <v>3.3201167161051424</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="n">
         <f aca="false">($A$13^$A27/FACT($A27))*$B$5</f>
-        <v>3.8796237536839074E-9</v>
+        <v>4.2656914285714265E-7</v>
       </c>
       <c r="E27" s="3" t="n">
         <f aca="false">($A$13^$A27/(FACT($B$4)*($B$4^($A27-$B$4))))*$B$5</f>
-        <v>0.014078378677368164</v>
+        <v>0.0030233087999999987</v>
       </c>
       <c r="F27" s="12" t="n">
         <v>10</v>
       </c>
       <c r="G27" s="13" t="n">
         <f aca="false">IF($A27&lt;=$B$4,D27,E27)</f>
-        <v>0.014078378677368164</v>
+        <v>0.0030233087999999987</v>
       </c>
       <c r="H27" s="14" t="n">
         <f aca="false">G27+H26</f>
-        <v>0.9577648639678955</v>
+        <v>0.9954650368</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -987,27 +992,27 @@
       </c>
       <c r="B28" s="3" t="n">
         <f aca="false">B27+A$13^A28/FACT(A28)</f>
-        <v>2.117000016542515</v>
+        <v>3.3201169022444046</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="n">
         <f aca="false">($A$13^$A28/FACT($A28))*$B$5</f>
-        <v>2.6451980138753915E-10</v>
+        <v>4.653481558441557E-8</v>
       </c>
       <c r="E28" s="3" t="n">
         <f aca="false">($A$13^$A28/(FACT($B$4)*($B$4^($A28-$B$4))))*$B$5</f>
-        <v>0.010558784008026123</v>
+        <v>0.0018139852799999993</v>
       </c>
       <c r="F28" s="12" t="n">
         <v>11</v>
       </c>
       <c r="G28" s="13" t="n">
         <f aca="false">IF($A28&lt;=$B$4,D28,E28)</f>
-        <v>0.010558784008026123</v>
+        <v>0.0018139852799999993</v>
       </c>
       <c r="H28" s="14" t="n">
         <f aca="false">G28+H27</f>
-        <v>0.9683236479759216</v>
+        <v>0.99727902208</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1016,27 +1021,27 @@
       </c>
       <c r="B29" s="3" t="n">
         <f aca="false">B28+A$13^A29/FACT(A29)</f>
-        <v>2.1170000166086447</v>
+        <v>3.320116920858331</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="n">
         <f aca="false">($A$13^$A29/FACT($A29))*$B$5</f>
-        <v>1.6532487586721197E-11</v>
+        <v>4.653481558441556E-9</v>
       </c>
       <c r="E29" s="3" t="n">
         <f aca="false">($A$13^$A29/(FACT($B$4)*($B$4^($A29-$B$4))))*$B$5</f>
-        <v>0.007919088006019592</v>
+        <v>0.0010883911679999995</v>
       </c>
       <c r="F29" s="12" t="n">
         <v>12</v>
       </c>
       <c r="G29" s="13" t="n">
         <f aca="false">IF($A29&lt;=$B$4,D29,E29)</f>
-        <v>0.007919088006019592</v>
+        <v>0.0010883911679999995</v>
       </c>
       <c r="H29" s="14" t="n">
         <f aca="false">G29+H28</f>
-        <v>0.9762427359819412</v>
+        <v>0.9983674132479999</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1045,27 +1050,27 @@
       </c>
       <c r="B30" s="3" t="n">
         <f aca="false">B29+A$13^A30/FACT(A30)</f>
-        <v>2.11700001661246</v>
+        <v>3.3201169225765397</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="n">
         <f aca="false">($A$13^$A30/FACT($A30))*$B$5</f>
-        <v>9.537973607723767E-13</v>
+        <v>4.2955214385614365E-10</v>
       </c>
       <c r="E30" s="3" t="n">
         <f aca="false">($A$13^$A30/(FACT($B$4)*($B$4^($A30-$B$4))))*$B$5</f>
-        <v>0.005939316004514694</v>
+        <v>6.530347007999997E-4</v>
       </c>
       <c r="F30" s="12" t="n">
         <v>13</v>
       </c>
       <c r="G30" s="13" t="n">
         <f aca="false">IF($A30&lt;=$B$4,D30,E30)</f>
-        <v>0.005939316004514694</v>
+        <v>6.530347007999997E-4</v>
       </c>
       <c r="H30" s="14" t="n">
         <f aca="false">G30+H29</f>
-        <v>0.9821820519864559</v>
+        <v>0.9990204479488</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1074,27 +1079,27 @@
       </c>
       <c r="B31" s="3" t="n">
         <f aca="false">B30+A$13^A31/FACT(A31)</f>
-        <v>2.117000016612664</v>
+        <v>3.3201169227238148</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="n">
         <f aca="false">($A$13^$A31/FACT($A31))*$B$5</f>
-        <v>5.109628718423447E-14</v>
+        <v>3.681875518766945E-11</v>
       </c>
       <c r="E31" s="3" t="n">
         <f aca="false">($A$13^$A31/(FACT($B$4)*($B$4^($A31-$B$4))))*$B$5</f>
-        <v>0.004454487003386021</v>
+        <v>3.918208204799998E-4</v>
       </c>
       <c r="F31" s="12" t="n">
         <v>14</v>
       </c>
       <c r="G31" s="13" t="n">
         <f aca="false">IF($A31&lt;=$B$4,D31,E31)</f>
-        <v>0.004454487003386021</v>
+        <v>3.918208204799998E-4</v>
       </c>
       <c r="H31" s="14" t="n">
         <f aca="false">G31+H30</f>
-        <v>0.9866365389898419</v>
+        <v>0.9994122687692799</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1103,27 +1108,27 @@
       </c>
       <c r="B32" s="3" t="n">
         <f aca="false">B31+A$13^A32/FACT(A32)</f>
-        <v>2.1170000166126743</v>
+        <v>3.320116922735597</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="n">
         <f aca="false">($A$13^$A32/FACT($A32))*$B$5</f>
-        <v>2.5548143592117234E-15</v>
+        <v>2.945500415013556E-12</v>
       </c>
       <c r="E32" s="3" t="n">
         <f aca="false">($A$13^$A32/(FACT($B$4)*($B$4^($A32-$B$4))))*$B$5</f>
-        <v>0.0033408652525395155</v>
+        <v>2.3509249228799987E-4</v>
       </c>
       <c r="F32" s="12" t="n">
         <v>15</v>
       </c>
       <c r="G32" s="13" t="n">
         <f aca="false">IF($A32&lt;=$B$4,D32,E32)</f>
-        <v>0.0033408652525395155</v>
+        <v>2.3509249228799987E-4</v>
       </c>
       <c r="H32" s="14" t="n">
         <f aca="false">G32+H31</f>
-        <v>0.9899774042423815</v>
+        <v>0.999647361261568</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1132,27 +1137,27 @@
       </c>
       <c r="B33" s="3" t="n">
         <f aca="false">B32+A$13^A33/FACT(A33)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227364806</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="n">
         <f aca="false">($A$13^$A33/FACT($A33))*$B$5</f>
-        <v>1.1975692308804954E-16</v>
+        <v>2.2091253112601673E-13</v>
       </c>
       <c r="E33" s="3" t="n">
         <f aca="false">($A$13^$A33/(FACT($B$4)*($B$4^($A33-$B$4))))*$B$5</f>
-        <v>0.0025056489394046366</v>
+        <v>1.4105549537279992E-4</v>
       </c>
       <c r="F33" s="12" t="n">
         <v>16</v>
       </c>
       <c r="G33" s="13" t="n">
         <f aca="false">IF($A33&lt;=$B$4,D33,E33)</f>
-        <v>0.0025056489394046366</v>
+        <v>1.4105549537279992E-4</v>
       </c>
       <c r="H33" s="14" t="n">
         <f aca="false">G33+H32</f>
-        <v>0.9924830531817861</v>
+        <v>0.9997884167569407</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1161,27 +1166,27 @@
       </c>
       <c r="B34" s="3" t="n">
         <f aca="false">B33+A$13^A34/FACT(A34)</f>
-        <v>2.117000016612675</v>
+        <v>3.320116922736543</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="n">
         <f aca="false">($A$13^$A34/FACT($A34))*$B$5</f>
-        <v>5.2833936656492446E-18</v>
+        <v>1.5593825726542354E-14</v>
       </c>
       <c r="E34" s="3" t="n">
         <f aca="false">($A$13^$A34/(FACT($B$4)*($B$4^($A34-$B$4))))*$B$5</f>
-        <v>0.0018792367045534775</v>
+        <v>8.463329722367994E-5</v>
       </c>
       <c r="F34" s="12" t="n">
         <v>17</v>
       </c>
       <c r="G34" s="13" t="n">
         <f aca="false">IF($A34&lt;=$B$4,D34,E34)</f>
-        <v>0.0018792367045534775</v>
+        <v>8.463329722367994E-5</v>
       </c>
       <c r="H34" s="14" t="n">
         <f aca="false">G34+H33</f>
-        <v>0.9943622898863396</v>
+        <v>0.9998730500541644</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1190,27 +1195,27 @@
       </c>
       <c r="B35" s="3" t="n">
         <f aca="false">B34+A$13^A35/FACT(A35)</f>
-        <v>2.117000016612675</v>
+        <v>3.320116922736547</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="n">
         <f aca="false">($A$13^$A35/FACT($A35))*$B$5</f>
-        <v>2.2014140273538517E-19</v>
+        <v>1.0395883817694904E-15</v>
       </c>
       <c r="E35" s="3" t="n">
         <f aca="false">($A$13^$A35/(FACT($B$4)*($B$4^($A35-$B$4))))*$B$5</f>
-        <v>0.001409427528415108</v>
+        <v>5.077997833420797E-5</v>
       </c>
       <c r="F35" s="12" t="n">
         <v>18</v>
       </c>
       <c r="G35" s="13" t="n">
         <f aca="false">IF($A35&lt;=$B$4,D35,E35)</f>
-        <v>0.001409427528415108</v>
+        <v>5.077997833420797E-5</v>
       </c>
       <c r="H35" s="14" t="n">
         <f aca="false">G35+H34</f>
-        <v>0.9957717174147547</v>
+        <v>0.9999238300324986</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1219,27 +1224,27 @@
       </c>
       <c r="B36" s="3" t="n">
         <f aca="false">B35+A$13^A36/FACT(A36)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="n">
         <f aca="false">($A$13^$A36/FACT($A36))*$B$5</f>
-        <v>8.689792213238888E-21</v>
+        <v>6.565821358544149E-17</v>
       </c>
       <c r="E36" s="3" t="n">
         <f aca="false">($A$13^$A36/(FACT($B$4)*($B$4^($A36-$B$4))))*$B$5</f>
-        <v>0.001057070646311331</v>
+        <v>3.046798700052478E-5</v>
       </c>
       <c r="F36" s="12" t="n">
         <v>19</v>
       </c>
       <c r="G36" s="13" t="n">
         <f aca="false">IF($A36&lt;=$B$4,D36,E36)</f>
-        <v>0.001057070646311331</v>
+        <v>3.046798700052478E-5</v>
       </c>
       <c r="H36" s="14" t="n">
         <f aca="false">G36+H35</f>
-        <v>0.996828788061066</v>
+        <v>0.9999542980194992</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1248,27 +1253,27 @@
       </c>
       <c r="B37" s="3" t="n">
         <f aca="false">B36+A$13^A37/FACT(A37)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="n">
         <f aca="false">($A$13^$A37/FACT($A37))*$B$5</f>
-        <v>3.2586720799645834E-22</v>
+        <v>3.9394928151264895E-18</v>
       </c>
       <c r="E37" s="3" t="n">
         <f aca="false">($A$13^$A37/(FACT($B$4)*($B$4^($A37-$B$4))))*$B$5</f>
-        <v>7.928029847334983E-4</v>
+        <v>1.8280792200314867E-5</v>
       </c>
       <c r="F37" s="12" t="n">
         <v>20</v>
       </c>
       <c r="G37" s="13" t="n">
         <f aca="false">IF($A37&lt;=$B$4,D37,E37)</f>
-        <v>7.928029847334983E-4</v>
+        <v>1.8280792200314867E-5</v>
       </c>
       <c r="H37" s="14" t="n">
         <f aca="false">G37+H36</f>
-        <v>0.9976215910457995</v>
+        <v>0.9999725788116995</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1277,27 +1282,27 @@
       </c>
       <c r="B38" s="3" t="n">
         <f aca="false">B37+A$13^A38/FACT(A38)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="n">
         <f aca="false">($A$13^$A38/FACT($A38))*$B$5</f>
-        <v>1.1638114571302083E-23</v>
+        <v>2.251138751500851E-19</v>
       </c>
       <c r="E38" s="3" t="n">
         <f aca="false">($A$13^$A38/(FACT($B$4)*($B$4^($A38-$B$4))))*$B$5</f>
-        <v>5.946022385501237E-4</v>
+        <v>1.096847532018892E-5</v>
       </c>
       <c r="F38" s="12" t="n">
         <v>21</v>
       </c>
       <c r="G38" s="13" t="n">
         <f aca="false">IF($A38&lt;=$B$4,D38,E38)</f>
-        <v>5.946022385501237E-4</v>
+        <v>1.096847532018892E-5</v>
       </c>
       <c r="H38" s="14" t="n">
         <f aca="false">G38+H37</f>
-        <v>0.9982161932843496</v>
+        <v>0.9999835472870198</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1306,27 +1311,27 @@
       </c>
       <c r="B39" s="3" t="n">
         <f aca="false">B38+A$13^A39/FACT(A39)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="n">
         <f aca="false">($A$13^$A39/FACT($A39))*$B$5</f>
-        <v>3.9675390583984372E-25</v>
+        <v>1.2278938644550096E-20</v>
       </c>
       <c r="E39" s="3" t="n">
         <f aca="false">($A$13^$A39/(FACT($B$4)*($B$4^($A39-$B$4))))*$B$5</f>
-        <v>4.459516789125928E-4</v>
+        <v>6.581085192113352E-6</v>
       </c>
       <c r="F39" s="12" t="n">
         <v>22</v>
       </c>
       <c r="G39" s="13" t="n">
         <f aca="false">IF($A39&lt;=$B$4,D39,E39)</f>
-        <v>4.459516789125928E-4</v>
+        <v>6.581085192113352E-6</v>
       </c>
       <c r="H39" s="14" t="n">
         <f aca="false">G39+H38</f>
-        <v>0.9986621449632622</v>
+        <v>0.9999901283722119</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1335,27 +1340,27 @@
       </c>
       <c r="B40" s="3" t="n">
         <f aca="false">B39+A$13^A40/FACT(A40)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="n">
         <f aca="false">($A$13^$A40/FACT($A40))*$B$5</f>
-        <v>1.293762736434273E-26</v>
+        <v>6.406402771069614E-22</v>
       </c>
       <c r="E40" s="3" t="n">
         <f aca="false">($A$13^$A40/(FACT($B$4)*($B$4^($A40-$B$4))))*$B$5</f>
-        <v>3.344637591844446E-4</v>
+        <v>3.94865111526801E-6</v>
       </c>
       <c r="F40" s="12" t="n">
         <v>23</v>
       </c>
       <c r="G40" s="13" t="n">
         <f aca="false">IF($A40&lt;=$B$4,D40,E40)</f>
-        <v>3.344637591844446E-4</v>
+        <v>3.94865111526801E-6</v>
       </c>
       <c r="H40" s="14" t="n">
         <f aca="false">G40+H39</f>
-        <v>0.9989966087224467</v>
+        <v>0.9999940770233272</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1364,27 +1369,27 @@
       </c>
       <c r="B41" s="3" t="n">
         <f aca="false">B40+A$13^A41/FACT(A41)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="n">
         <f aca="false">($A$13^$A41/FACT($A41))*$B$5</f>
-        <v>4.043008551357104E-28</v>
+        <v>3.2032013855348074E-23</v>
       </c>
       <c r="E41" s="3" t="n">
         <f aca="false">($A$13^$A41/(FACT($B$4)*($B$4^($A41-$B$4))))*$B$5</f>
-        <v>2.5084781938833345E-4</v>
+        <v>2.3691906691608063E-6</v>
       </c>
       <c r="F41" s="12" t="n">
         <v>24</v>
       </c>
       <c r="G41" s="13" t="n">
         <f aca="false">IF($A41&lt;=$B$4,D41,E41)</f>
-        <v>2.5084781938833345E-4</v>
+        <v>2.3691906691608063E-6</v>
       </c>
       <c r="H41" s="14" t="n">
         <f aca="false">G41+H40</f>
-        <v>0.999247456541835</v>
+        <v>0.9999964462139964</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1393,27 +1398,27 @@
       </c>
       <c r="B42" s="3" t="n">
         <f aca="false">B41+A$13^A42/FACT(A42)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="n">
         <f aca="false">($A$13^$A42/FACT($A42))*$B$5</f>
-        <v>1.212902565407131E-29</v>
+        <v>1.5375366650567076E-24</v>
       </c>
       <c r="E42" s="3" t="n">
         <f aca="false">($A$13^$A42/(FACT($B$4)*($B$4^($A42-$B$4))))*$B$5</f>
-        <v>1.8813586454125009E-4</v>
+        <v>1.4215144014964838E-6</v>
       </c>
       <c r="F42" s="12" t="n">
         <v>25</v>
       </c>
       <c r="G42" s="13" t="n">
         <f aca="false">IF($A42&lt;=$B$4,D42,E42)</f>
-        <v>1.8813586454125009E-4</v>
+        <v>1.4215144014964838E-6</v>
       </c>
       <c r="H42" s="14" t="n">
         <f aca="false">G42+H41</f>
-        <v>0.9994355924063762</v>
+        <v>0.9999978677283979</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1422,27 +1427,27 @@
       </c>
       <c r="B43" s="3" t="n">
         <f aca="false">B42+A$13^A43/FACT(A43)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="n">
         <f aca="false">($A$13^$A43/FACT($A43))*$B$5</f>
-        <v>3.498757400212878E-31</v>
+        <v>7.096323069492495E-26</v>
       </c>
       <c r="E43" s="3" t="n">
         <f aca="false">($A$13^$A43/(FACT($B$4)*($B$4^($A43-$B$4))))*$B$5</f>
-        <v>1.4110189840593756E-4</v>
+        <v>8.529086408978902E-7</v>
       </c>
       <c r="F43" s="12" t="n">
         <v>26</v>
       </c>
       <c r="G43" s="13" t="n">
         <f aca="false">IF($A43&lt;=$B$4,D43,E43)</f>
-        <v>1.4110189840593756E-4</v>
+        <v>8.529086408978902E-7</v>
       </c>
       <c r="H43" s="14" t="n">
         <f aca="false">G43+H42</f>
-        <v>0.9995766943047821</v>
+        <v>0.9999987206370389</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1451,27 +1456,27 @@
       </c>
       <c r="B44" s="3" t="n">
         <f aca="false">B43+A$13^A44/FACT(A44)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="n">
         <f aca="false">($A$13^$A44/FACT($A44))*$B$5</f>
-        <v>9.718770556146883E-33</v>
+        <v>3.153921364218887E-27</v>
       </c>
       <c r="E44" s="3" t="n">
         <f aca="false">($A$13^$A44/(FACT($B$4)*($B$4^($A44-$B$4))))*$B$5</f>
-        <v>1.0582642380445317E-4</v>
+        <v>5.117451845387341E-7</v>
       </c>
       <c r="F44" s="12" t="n">
         <v>27</v>
       </c>
       <c r="G44" s="13" t="n">
         <f aca="false">IF($A44&lt;=$B$4,D44,E44)</f>
-        <v>1.0582642380445317E-4</v>
+        <v>5.117451845387341E-7</v>
       </c>
       <c r="H44" s="14" t="n">
         <f aca="false">G44+H43</f>
-        <v>0.9996825207285865</v>
+        <v>0.9999992323822234</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1480,27 +1485,27 @@
       </c>
       <c r="B45" s="3" t="n">
         <f aca="false">B44+A$13^A45/FACT(A45)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="n">
         <f aca="false">($A$13^$A45/FACT($A45))*$B$5</f>
-        <v>2.6032421132536295E-34</v>
+        <v>1.3516805846652372E-28</v>
       </c>
       <c r="E45" s="3" t="n">
         <f aca="false">($A$13^$A45/(FACT($B$4)*($B$4^($A45-$B$4))))*$B$5</f>
-        <v>7.936981785333988E-5</v>
+        <v>3.0704711072324044E-7</v>
       </c>
       <c r="F45" s="12" t="n">
         <v>28</v>
       </c>
       <c r="G45" s="13" t="n">
         <f aca="false">IF($A45&lt;=$B$4,D45,E45)</f>
-        <v>7.936981785333988E-5</v>
+        <v>3.0704711072324044E-7</v>
       </c>
       <c r="H45" s="14" t="n">
         <f aca="false">G45+H44</f>
-        <v>0.9997618905464399</v>
+        <v>0.9999995394293342</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1509,27 +1514,27 @@
       </c>
       <c r="B46" s="3" t="n">
         <f aca="false">B45+A$13^A46/FACT(A46)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="n">
         <f aca="false">($A$13^$A46/FACT($A46))*$B$5</f>
-        <v>6.732522706690421E-36</v>
+        <v>5.593161039994085E-30</v>
       </c>
       <c r="E46" s="3" t="n">
         <f aca="false">($A$13^$A46/(FACT($B$4)*($B$4^($A46-$B$4))))*$B$5</f>
-        <v>5.952736339000491E-5</v>
+        <v>1.8422826643394426E-7</v>
       </c>
       <c r="F46" s="12" t="n">
         <v>29</v>
       </c>
       <c r="G46" s="13" t="n">
         <f aca="false">IF($A46&lt;=$B$4,D46,E46)</f>
-        <v>5.952736339000491E-5</v>
+        <v>1.8422826643394426E-7</v>
       </c>
       <c r="H46" s="14" t="n">
         <f aca="false">G46+H45</f>
-        <v>0.9998214179098299</v>
+        <v>0.9999997236576006</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1538,27 +1543,27 @@
       </c>
       <c r="B47" s="3" t="n">
         <f aca="false">B46+A$13^A47/FACT(A47)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="n">
         <f aca="false">($A$13^$A47/FACT($A47))*$B$5</f>
-        <v>1.6831306766726054E-37</v>
+        <v>2.237264415997634E-31</v>
       </c>
       <c r="E47" s="3" t="n">
         <f aca="false">($A$13^$A47/(FACT($B$4)*($B$4^($A47-$B$4))))*$B$5</f>
-        <v>4.464552254250368E-5</v>
+        <v>1.1053695986036656E-7</v>
       </c>
       <c r="F47" s="12" t="n">
         <v>30</v>
       </c>
       <c r="G47" s="13" t="n">
         <f aca="false">IF($A47&lt;=$B$4,D47,E47)</f>
-        <v>4.464552254250368E-5</v>
+        <v>1.1053695986036656E-7</v>
       </c>
       <c r="H47" s="14" t="n">
         <f aca="false">G47+H46</f>
-        <v>0.9998660634323724</v>
+        <v>0.9999998341945604</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1567,27 +1572,27 @@
       </c>
       <c r="B48" s="3" t="n">
         <f aca="false">B47+A$13^A48/FACT(A48)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="n">
         <f aca="false">($A$13^$A48/FACT($A48))*$B$5</f>
-        <v>4.072090346788561E-39</v>
+        <v>8.660378384506971E-33</v>
       </c>
       <c r="E48" s="3" t="n">
         <f aca="false">($A$13^$A48/(FACT($B$4)*($B$4^($A48-$B$4))))*$B$5</f>
-        <v>3.348414190687776E-5</v>
+        <v>6.632217591621994E-8</v>
       </c>
       <c r="F48" s="12" t="n">
         <v>31</v>
       </c>
       <c r="G48" s="13" t="n">
         <f aca="false">IF($A48&lt;=$B$4,D48,E48)</f>
-        <v>3.348414190687776E-5</v>
+        <v>6.632217591621994E-8</v>
       </c>
       <c r="H48" s="14" t="n">
         <f aca="false">G48+H47</f>
-        <v>0.9998995475742792</v>
+        <v>0.9999999005167363</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1596,27 +1601,27 @@
       </c>
       <c r="B49" s="3" t="n">
         <f aca="false">B48+A$13^A49/FACT(A49)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="n">
         <f aca="false">($A$13^$A49/FACT($A49))*$B$5</f>
-        <v>9.54396175028569E-41</v>
+        <v>3.2476418941901138E-34</v>
       </c>
       <c r="E49" s="3" t="n">
         <f aca="false">($A$13^$A49/(FACT($B$4)*($B$4^($A49-$B$4))))*$B$5</f>
-        <v>2.511310643015832E-5</v>
+        <v>3.979330554973196E-8</v>
       </c>
       <c r="F49" s="12" t="n">
         <v>32</v>
       </c>
       <c r="G49" s="13" t="n">
         <f aca="false">IF($A49&lt;=$B$4,D49,E49)</f>
-        <v>2.511310643015832E-5</v>
+        <v>3.979330554973196E-8</v>
       </c>
       <c r="H49" s="14" t="n">
         <f aca="false">G49+H48</f>
-        <v>0.9999246606807094</v>
+        <v>0.9999999403100418</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1625,27 +1630,27 @@
       </c>
       <c r="B50" s="3" t="n">
         <f aca="false">B49+A$13^A50/FACT(A50)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="n">
         <f aca="false">($A$13^$A50/FACT($A50))*$B$5</f>
-        <v>2.1690822159740206E-42</v>
+        <v>1.1809606887964048E-35</v>
       </c>
       <c r="E50" s="3" t="n">
         <f aca="false">($A$13^$A50/(FACT($B$4)*($B$4^($A50-$B$4))))*$B$5</f>
-        <v>1.883482982261874E-5</v>
+        <v>2.3875983329839172E-8</v>
       </c>
       <c r="F50" s="12" t="n">
         <v>33</v>
       </c>
       <c r="G50" s="13" t="n">
         <f aca="false">IF($A50&lt;=$B$4,D50,E50)</f>
-        <v>1.883482982261874E-5</v>
+        <v>2.3875983329839172E-8</v>
       </c>
       <c r="H50" s="14" t="n">
         <f aca="false">G50+H49</f>
-        <v>0.999943495510532</v>
+        <v>0.9999999641860251</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1654,27 +1659,27 @@
       </c>
       <c r="B51" s="3" t="n">
         <f aca="false">B50+A$13^A51/FACT(A51)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="n">
         <f aca="false">($A$13^$A51/FACT($A51))*$B$5</f>
-        <v>4.784740182295634E-44</v>
+        <v>4.168096548693193E-37</v>
       </c>
       <c r="E51" s="3" t="n">
         <f aca="false">($A$13^$A51/(FACT($B$4)*($B$4^($A51-$B$4))))*$B$5</f>
-        <v>1.4126122366964055E-5</v>
+        <v>1.4325589997903503E-8</v>
       </c>
       <c r="F51" s="12" t="n">
         <v>34</v>
       </c>
       <c r="G51" s="13" t="n">
         <f aca="false">IF($A51&lt;=$B$4,D51,E51)</f>
-        <v>1.4126122366964055E-5</v>
+        <v>1.4325589997903503E-8</v>
       </c>
       <c r="H51" s="14" t="n">
         <f aca="false">G51+H50</f>
-        <v>0.9999576216328989</v>
+        <v>0.9999999785116152</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1683,27 +1688,27 @@
       </c>
       <c r="B52" s="3" t="n">
         <f aca="false">B51+A$13^A52/FACT(A52)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="n">
         <f aca="false">($A$13^$A52/FACT($A52))*$B$5</f>
-        <v>1.0253014676347786E-45</v>
+        <v>1.4290616738376663E-38</v>
       </c>
       <c r="E52" s="3" t="n">
         <f aca="false">($A$13^$A52/(FACT($B$4)*($B$4^($A52-$B$4))))*$B$5</f>
-        <v>1.0594591775223041E-5</v>
+        <v>8.595353998742102E-9</v>
       </c>
       <c r="F52" s="12" t="n">
         <v>35</v>
       </c>
       <c r="G52" s="13" t="n">
         <f aca="false">IF($A52&lt;=$B$4,D52,E52)</f>
-        <v>1.0594591775223041E-5</v>
+        <v>8.595353998742102E-9</v>
       </c>
       <c r="H52" s="14" t="n">
         <f aca="false">G52+H51</f>
-        <v>0.9999682162246741</v>
+        <v>0.9999999871069691</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1712,27 +1717,27 @@
       </c>
       <c r="B53" s="3" t="n">
         <f aca="false">B52+A$13^A53/FACT(A53)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="n">
         <f aca="false">($A$13^$A53/FACT($A53))*$B$5</f>
-        <v>2.1360447242391224E-47</v>
+        <v>4.763538912792221E-40</v>
       </c>
       <c r="E53" s="3" t="n">
         <f aca="false">($A$13^$A53/(FACT($B$4)*($B$4^($A53-$B$4))))*$B$5</f>
-        <v>7.945943831417282E-6</v>
+        <v>5.157212399245261E-9</v>
       </c>
       <c r="F53" s="12" t="n">
         <v>36</v>
       </c>
       <c r="G53" s="13" t="n">
         <f aca="false">IF($A53&lt;=$B$4,D53,E53)</f>
-        <v>7.945943831417282E-6</v>
+        <v>5.157212399245261E-9</v>
       </c>
       <c r="H53" s="14" t="n">
         <f aca="false">G53+H52</f>
-        <v>0.9999761621685056</v>
+        <v>0.9999999922641816</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1741,27 +1746,27 @@
       </c>
       <c r="B54" s="3" t="n">
         <f aca="false">B53+A$13^A54/FACT(A54)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="n">
         <f aca="false">($A$13^$A54/FACT($A54))*$B$5</f>
-        <v>4.329820386971194E-49</v>
+        <v>1.5449315392839636E-41</v>
       </c>
       <c r="E54" s="3" t="n">
         <f aca="false">($A$13^$A54/(FACT($B$4)*($B$4^($A54-$B$4))))*$B$5</f>
-        <v>5.959457873562961E-6</v>
+        <v>3.0943274395471564E-9</v>
       </c>
       <c r="F54" s="12" t="n">
         <v>37</v>
       </c>
       <c r="G54" s="13" t="n">
         <f aca="false">IF($A54&lt;=$B$4,D54,E54)</f>
-        <v>5.959457873562961E-6</v>
+        <v>3.0943274395471564E-9</v>
       </c>
       <c r="H54" s="14" t="n">
         <f aca="false">G54+H53</f>
-        <v>0.9999821216263791</v>
+        <v>0.999999995358509</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1770,27 +1775,27 @@
       </c>
       <c r="B55" s="3" t="n">
         <f aca="false">B54+A$13^A55/FACT(A55)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="n">
         <f aca="false">($A$13^$A55/FACT($A55))*$B$5</f>
-        <v>8.545698132179988E-51</v>
+        <v>4.878731176686201E-43</v>
       </c>
       <c r="E55" s="3" t="n">
         <f aca="false">($A$13^$A55/(FACT($B$4)*($B$4^($A55-$B$4))))*$B$5</f>
-        <v>4.4695934051722205E-6</v>
+        <v>1.8565964637282938E-9</v>
       </c>
       <c r="F55" s="12" t="n">
         <v>38</v>
       </c>
       <c r="G55" s="13" t="n">
         <f aca="false">IF($A55&lt;=$B$4,D55,E55)</f>
-        <v>4.4695934051722205E-6</v>
+        <v>1.8565964637282938E-9</v>
       </c>
       <c r="H55" s="14" t="n">
         <f aca="false">G55+H54</f>
-        <v>0.9999865912197843</v>
+        <v>0.9999999972151055</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1799,27 +1804,27 @@
       </c>
       <c r="B56" s="3" t="n">
         <f aca="false">B55+A$13^A56/FACT(A56)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="n">
         <f aca="false">($A$13^$A56/FACT($A56))*$B$5</f>
-        <v>1.6434034869576898E-52</v>
+        <v>1.5011480543649846E-44</v>
       </c>
       <c r="E56" s="3" t="n">
         <f aca="false">($A$13^$A56/(FACT($B$4)*($B$4^($A56-$B$4))))*$B$5</f>
-        <v>3.3521950538791656E-6</v>
+        <v>1.1139578782369762E-9</v>
       </c>
       <c r="F56" s="12" t="n">
         <v>39</v>
       </c>
       <c r="G56" s="13" t="n">
         <f aca="false">IF($A56&lt;=$B$4,D56,E56)</f>
-        <v>3.3521950538791656E-6</v>
+        <v>1.1139578782369762E-9</v>
       </c>
       <c r="H56" s="14" t="n">
         <f aca="false">G56+H55</f>
-        <v>0.9999899434148382</v>
+        <v>0.9999999983290634</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1828,27 +1833,27 @@
       </c>
       <c r="B57" s="3" t="n">
         <f aca="false">B56+A$13^A57/FACT(A57)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="n">
         <f aca="false">($A$13^$A57/FACT($A57))*$B$5</f>
-        <v>3.0813815380456683E-54</v>
+        <v>4.503444163094954E-46</v>
       </c>
       <c r="E57" s="3" t="n">
         <f aca="false">($A$13^$A57/(FACT($B$4)*($B$4^($A57-$B$4))))*$B$5</f>
-        <v>2.514146290409374E-6</v>
+        <v>6.683747269421857E-10</v>
       </c>
       <c r="F57" s="12" t="n">
         <v>40</v>
       </c>
       <c r="G57" s="13" t="n">
         <f aca="false">IF($A57&lt;=$B$4,D57,E57)</f>
-        <v>2.514146290409374E-6</v>
+        <v>6.683747269421857E-10</v>
       </c>
       <c r="H57" s="14" t="n">
         <f aca="false">G57+H56</f>
-        <v>0.9999924575611285</v>
+        <v>0.9999999989974381</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1857,27 +1862,27 @@
       </c>
       <c r="B58" s="3" t="n">
         <f aca="false">B57+A$13^A58/FACT(A58)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="n">
         <f aca="false">($A$13^$A58/FACT($A58))*$B$5</f>
-        <v>5.636673545205492E-56</v>
+        <v>1.3180812184668158E-47</v>
       </c>
       <c r="E58" s="3" t="n">
         <f aca="false">($A$13^$A58/(FACT($B$4)*($B$4^($A58-$B$4))))*$B$5</f>
-        <v>1.8856097178070307E-6</v>
+        <v>4.0102483616531143E-10</v>
       </c>
       <c r="F58" s="12" t="n">
         <v>41</v>
       </c>
       <c r="G58" s="13" t="n">
         <f aca="false">IF($A58&lt;=$B$4,D58,E58)</f>
-        <v>1.8856097178070307E-6</v>
+        <v>4.0102483616531143E-10</v>
       </c>
       <c r="H58" s="14" t="n">
         <f aca="false">G58+H57</f>
-        <v>0.9999943431708463</v>
+        <v>0.999999999398463</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1886,27 +1891,27 @@
       </c>
       <c r="B59" s="3" t="n">
         <f aca="false">B58+A$13^A59/FACT(A59)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="n">
         <f aca="false">($A$13^$A59/FACT($A59))*$B$5</f>
-        <v>1.0065488473581235E-57</v>
+        <v>3.765946338476616E-49</v>
       </c>
       <c r="E59" s="3" t="n">
         <f aca="false">($A$13^$A59/(FACT($B$4)*($B$4^($A59-$B$4))))*$B$5</f>
-        <v>1.414207288355273E-6</v>
+        <v>2.4061490169918684E-10</v>
       </c>
       <c r="F59" s="12" t="n">
         <v>42</v>
       </c>
       <c r="G59" s="13" t="n">
         <f aca="false">IF($A59&lt;=$B$4,D59,E59)</f>
-        <v>1.414207288355273E-6</v>
+        <v>2.4061490169918684E-10</v>
       </c>
       <c r="H59" s="14" t="n">
         <f aca="false">G59+H58</f>
-        <v>0.9999957573781347</v>
+        <v>0.9999999996390778</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1915,27 +1920,27 @@
       </c>
       <c r="B60" s="3" t="n">
         <f aca="false">B59+A$13^A60/FACT(A60)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="n">
         <f aca="false">($A$13^$A60/FACT($A60))*$B$5</f>
-        <v>1.755608454694401E-59</v>
+        <v>1.050961768877195E-50</v>
       </c>
       <c r="E60" s="3" t="n">
         <f aca="false">($A$13^$A60/(FACT($B$4)*($B$4^($A60-$B$4))))*$B$5</f>
-        <v>1.0606554662664546E-6</v>
+        <v>1.443689410195121E-10</v>
       </c>
       <c r="F60" s="12" t="n">
         <v>43</v>
       </c>
       <c r="G60" s="13" t="n">
         <f aca="false">IF($A60&lt;=$B$4,D60,E60)</f>
-        <v>1.0606554662664546E-6</v>
+        <v>1.443689410195121E-10</v>
       </c>
       <c r="H60" s="14" t="n">
         <f aca="false">G60+H59</f>
-        <v>0.999996818033601</v>
+        <v>0.9999999997834468</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1944,27 +1949,27 @@
       </c>
       <c r="B61" s="3" t="n">
         <f aca="false">B60+A$13^A61/FACT(A61)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="n">
         <f aca="false">($A$13^$A61/FACT($A61))*$B$5</f>
-        <v>2.9925144114109114E-61</v>
+        <v>2.8662593696650775E-52</v>
       </c>
       <c r="E61" s="3" t="n">
         <f aca="false">($A$13^$A61/(FACT($B$4)*($B$4^($A61-$B$4))))*$B$5</f>
-        <v>7.95491599699841E-7</v>
+        <v>8.662136461170726E-11</v>
       </c>
       <c r="F61" s="12" t="n">
         <v>44</v>
       </c>
       <c r="G61" s="13" t="n">
         <f aca="false">IF($A61&lt;=$B$4,D61,E61)</f>
-        <v>7.95491599699841E-7</v>
+        <v>8.662136461170726E-11</v>
       </c>
       <c r="H61" s="14" t="n">
         <f aca="false">G61+H60</f>
-        <v>0.9999976135252007</v>
+        <v>0.9999999998700682</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1973,27 +1978,27 @@
       </c>
       <c r="B62" s="3" t="n">
         <f aca="false">B61+A$13^A62/FACT(A62)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="n">
         <f aca="false">($A$13^$A62/FACT($A62))*$B$5</f>
-        <v>4.987524019018185E-63</v>
+        <v>7.643358319106872E-54</v>
       </c>
       <c r="E62" s="3" t="n">
         <f aca="false">($A$13^$A62/(FACT($B$4)*($B$4^($A62-$B$4))))*$B$5</f>
-        <v>5.966186997748808E-7</v>
+        <v>5.197281876702435E-11</v>
       </c>
       <c r="F62" s="12" t="n">
         <v>45</v>
       </c>
       <c r="G62" s="13" t="n">
         <f aca="false">IF($A62&lt;=$B$4,D62,E62)</f>
-        <v>5.966186997748808E-7</v>
+        <v>5.197281876702435E-11</v>
       </c>
       <c r="H62" s="14" t="n">
         <f aca="false">G62+H61</f>
-        <v>0.9999982101439004</v>
+        <v>0.999999999922041</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2002,27 +2007,27 @@
       </c>
       <c r="B63" s="3" t="n">
         <f aca="false">B62+A$13^A63/FACT(A63)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="n">
         <f aca="false">($A$13^$A63/FACT($A63))*$B$5</f>
-        <v>8.131832639703564E-65</v>
+        <v>1.9939195615061408E-55</v>
       </c>
       <c r="E63" s="3" t="n">
         <f aca="false">($A$13^$A63/(FACT($B$4)*($B$4^($A63-$B$4))))*$B$5</f>
-        <v>4.474640248311606E-7</v>
+        <v>3.118369126021461E-11</v>
       </c>
       <c r="F63" s="12" t="n">
         <v>46</v>
       </c>
       <c r="G63" s="13" t="n">
         <f aca="false">IF($A63&lt;=$B$4,D63,E63)</f>
-        <v>4.474640248311606E-7</v>
+        <v>3.118369126021461E-11</v>
       </c>
       <c r="H63" s="14" t="n">
         <f aca="false">G63+H62</f>
-        <v>0.9999986576079253</v>
+        <v>0.9999999999532247</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2031,27 +2036,27 @@
       </c>
       <c r="B64" s="3" t="n">
         <f aca="false">B63+A$13^A64/FACT(A64)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="n">
         <f aca="false">($A$13^$A64/FACT($A64))*$B$5</f>
-        <v>1.2976328680378026E-66</v>
+        <v>5.0908584549092946E-57</v>
       </c>
       <c r="E64" s="3" t="n">
         <f aca="false">($A$13^$A64/(FACT($B$4)*($B$4^($A64-$B$4))))*$B$5</f>
-        <v>3.3559801862337043E-7</v>
+        <v>1.8710214756128764E-11</v>
       </c>
       <c r="F64" s="12" t="n">
         <v>47</v>
       </c>
       <c r="G64" s="13" t="n">
         <f aca="false">IF($A64&lt;=$B$4,D64,E64)</f>
-        <v>3.3559801862337043E-7</v>
+        <v>1.8710214756128764E-11</v>
       </c>
       <c r="H64" s="14" t="n">
         <f aca="false">G64+H63</f>
-        <v>0.9999989932059439</v>
+        <v>0.999999999971935</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2060,27 +2065,27 @@
       </c>
       <c r="B65" s="3" t="n">
         <f aca="false">B64+A$13^A65/FACT(A65)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="n">
         <f aca="false">($A$13^$A65/FACT($A65))*$B$5</f>
-        <v>2.0275513563090665E-68</v>
+        <v>1.2727146137273238E-58</v>
       </c>
       <c r="E65" s="3" t="n">
         <f aca="false">($A$13^$A65/(FACT($B$4)*($B$4^($A65-$B$4))))*$B$5</f>
-        <v>2.5169851396752785E-7</v>
+        <v>1.1226128853677258E-11</v>
       </c>
       <c r="F65" s="12" t="n">
         <v>48</v>
       </c>
       <c r="G65" s="13" t="n">
         <f aca="false">IF($A65&lt;=$B$4,D65,E65)</f>
-        <v>2.5169851396752785E-7</v>
+        <v>1.1226128853677258E-11</v>
       </c>
       <c r="H65" s="14" t="n">
         <f aca="false">G65+H64</f>
-        <v>0.9999992449044578</v>
+        <v>0.9999999999831611</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2089,27 +2094,27 @@
       </c>
       <c r="B66" s="3" t="n">
         <f aca="false">B65+A$13^A66/FACT(A66)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="n">
         <f aca="false">($A$13^$A66/FACT($A66))*$B$5</f>
-        <v>3.1033949331261225E-70</v>
+        <v>3.116852115250589E-60</v>
       </c>
       <c r="E66" s="3" t="n">
         <f aca="false">($A$13^$A66/(FACT($B$4)*($B$4^($A66-$B$4))))*$B$5</f>
-        <v>1.8877388547564587E-7</v>
+        <v>6.735677312206355E-12</v>
       </c>
       <c r="F66" s="12" t="n">
         <v>49</v>
       </c>
       <c r="G66" s="13" t="n">
         <f aca="false">IF($A66&lt;=$B$4,D66,E66)</f>
-        <v>1.8877388547564587E-7</v>
+        <v>6.735677312206355E-12</v>
       </c>
       <c r="H66" s="14" t="n">
         <f aca="false">G66+H65</f>
-        <v>0.9999994336783433</v>
+        <v>0.9999999999898969</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2118,27 +2123,27 @@
       </c>
       <c r="B67" s="3" t="n">
         <f aca="false">B66+A$13^A67/FACT(A67)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="n">
         <f aca="false">($A$13^$A67/FACT($A67))*$B$5</f>
-        <v>4.655092399689184E-72</v>
+        <v>7.480445076601414E-62</v>
       </c>
       <c r="E67" s="3" t="n">
         <f aca="false">($A$13^$A67/(FACT($B$4)*($B$4^($A67-$B$4))))*$B$5</f>
-        <v>1.415804141067344E-7</v>
+        <v>4.041406387323813E-12</v>
       </c>
       <c r="F67" s="12" t="n">
         <v>50</v>
       </c>
       <c r="G67" s="13" t="n">
         <f aca="false">IF($A67&lt;=$B$4,D67,E67)</f>
-        <v>1.415804141067344E-7</v>
+        <v>4.041406387323813E-12</v>
       </c>
       <c r="H67" s="14" t="n">
         <f aca="false">G67+H66</f>
-        <v>0.9999995752587574</v>
+        <v>0.9999999999939383</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2147,27 +2152,27 @@
       </c>
       <c r="B68" s="3" t="n">
         <f aca="false">B67+A$13^A68/FACT(A68)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="n">
         <f aca="false">($A$13^$A68/FACT($A68))*$B$5</f>
-        <v>6.845724117189976E-74</v>
+        <v>1.7601047239062146E-63</v>
       </c>
       <c r="E68" s="3" t="n">
         <f aca="false">($A$13^$A68/(FACT($B$4)*($B$4^($A68-$B$4))))*$B$5</f>
-        <v>1.061853105800508E-7</v>
+        <v>2.4248438323942876E-12</v>
       </c>
       <c r="F68" s="12" t="n">
         <v>51</v>
       </c>
       <c r="G68" s="13" t="n">
         <f aca="false">IF($A68&lt;=$B$4,D68,E68)</f>
-        <v>1.061853105800508E-7</v>
+        <v>2.4248438323942876E-12</v>
       </c>
       <c r="H68" s="14" t="n">
         <f aca="false">G68+H67</f>
-        <v>0.9999996814440679</v>
+        <v>0.9999999999963631</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2176,27 +2181,27 @@
       </c>
       <c r="B69" s="3" t="n">
         <f aca="false">B68+A$13^A69/FACT(A69)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="n">
         <f aca="false">($A$13^$A69/FACT($A69))*$B$5</f>
-        <v>9.873640553639387E-76</v>
+        <v>4.061780132091264E-65</v>
       </c>
       <c r="E69" s="3" t="n">
         <f aca="false">($A$13^$A69/(FACT($B$4)*($B$4^($A69-$B$4))))*$B$5</f>
-        <v>7.96389829350381E-8</v>
+        <v>1.4549062994365725E-12</v>
       </c>
       <c r="F69" s="12" t="n">
         <v>52</v>
       </c>
       <c r="G69" s="13" t="n">
         <f aca="false">IF($A69&lt;=$B$4,D69,E69)</f>
-        <v>7.96389829350381E-8</v>
+        <v>1.4549062994365725E-12</v>
       </c>
       <c r="H69" s="14" t="n">
         <f aca="false">G69+H68</f>
-        <v>0.9999997610830509</v>
+        <v>0.9999999999978181</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2205,27 +2210,27 @@
       </c>
       <c r="B70" s="3" t="n">
         <f aca="false">B69+A$13^A70/FACT(A70)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="n">
         <f aca="false">($A$13^$A70/FACT($A70))*$B$5</f>
-        <v>1.3972132858923661E-77</v>
+        <v>9.196483317942484E-67</v>
       </c>
       <c r="E70" s="3" t="n">
         <f aca="false">($A$13^$A70/(FACT($B$4)*($B$4^($A70-$B$4))))*$B$5</f>
-        <v>5.972923720127858E-8</v>
+        <v>8.729437796619435E-13</v>
       </c>
       <c r="F70" s="12" t="n">
         <v>53</v>
       </c>
       <c r="G70" s="13" t="n">
         <f aca="false">IF($A70&lt;=$B$4,D70,E70)</f>
-        <v>5.972923720127858E-8</v>
+        <v>8.729437796619435E-13</v>
       </c>
       <c r="H70" s="14" t="n">
         <f aca="false">G70+H69</f>
-        <v>0.9999998208122881</v>
+        <v>0.999999999998691</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2234,27 +2239,27 @@
       </c>
       <c r="B71" s="3" t="n">
         <f aca="false">B70+A$13^A71/FACT(A71)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="n">
         <f aca="false">($A$13^$A71/FACT($A71))*$B$5</f>
-        <v>1.940574008183842E-79</v>
+        <v>2.043662959542774E-68</v>
       </c>
       <c r="E71" s="3" t="n">
         <f aca="false">($A$13^$A71/(FACT($B$4)*($B$4^($A71-$B$4))))*$B$5</f>
-        <v>4.4796927900958936E-8</v>
+        <v>5.237662677971661E-13</v>
       </c>
       <c r="F71" s="12" t="n">
         <v>54</v>
       </c>
       <c r="G71" s="13" t="n">
         <f aca="false">IF($A71&lt;=$B$4,D71,E71)</f>
-        <v>4.4796927900958936E-8</v>
+        <v>5.237662677971661E-13</v>
       </c>
       <c r="H71" s="14" t="n">
         <f aca="false">G71+H70</f>
-        <v>0.999999865609216</v>
+        <v>0.9999999999992149</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2263,27 +2268,27 @@
       </c>
       <c r="B72" s="3" t="n">
         <f aca="false">B71+A$13^A72/FACT(A72)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="n">
         <f aca="false">($A$13^$A72/FACT($A72))*$B$5</f>
-        <v>2.6462372838870566E-81</v>
+        <v>4.45890100263878E-70</v>
       </c>
       <c r="E72" s="3" t="n">
         <f aca="false">($A$13^$A72/(FACT($B$4)*($B$4^($A72-$B$4))))*$B$5</f>
-        <v>3.35976959257192E-8</v>
+        <v>3.142597606782996E-13</v>
       </c>
       <c r="F72" s="12" t="n">
         <v>55</v>
       </c>
       <c r="G72" s="13" t="n">
         <f aca="false">IF($A72&lt;=$B$4,D72,E72)</f>
-        <v>3.35976959257192E-8</v>
+        <v>3.142597606782996E-13</v>
       </c>
       <c r="H72" s="14" t="n">
         <f aca="false">G72+H71</f>
-        <v>0.999999899206912</v>
+        <v>0.9999999999995292</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2292,27 +2297,27 @@
       </c>
       <c r="B73" s="3" t="n">
         <f aca="false">B72+A$13^A73/FACT(A73)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="n">
         <f aca="false">($A$13^$A73/FACT($A73))*$B$5</f>
-        <v>3.544067790920166E-83</v>
+        <v>9.554787862797385E-72</v>
       </c>
       <c r="E73" s="3" t="n">
         <f aca="false">($A$13^$A73/(FACT($B$4)*($B$4^($A73-$B$4))))*$B$5</f>
-        <v>2.51982719442894E-8</v>
+        <v>1.8855585640697977E-13</v>
       </c>
       <c r="F73" s="12" t="n">
         <v>56</v>
       </c>
       <c r="G73" s="13" t="n">
         <f aca="false">IF($A73&lt;=$B$4,D73,E73)</f>
-        <v>2.51982719442894E-8</v>
+        <v>1.8855585640697977E-13</v>
       </c>
       <c r="H73" s="14" t="n">
         <f aca="false">G73+H72</f>
-        <v>0.9999999244051839</v>
+        <v>0.9999999999997177</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2321,27 +2326,27 @@
       </c>
       <c r="B74" s="3" t="n">
         <f aca="false">B73+A$13^A74/FACT(A74)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="n">
         <f aca="false">($A$13^$A74/FACT($A74))*$B$5</f>
-        <v>4.6632470933160076E-85</v>
+        <v>2.0115342869047125E-73</v>
       </c>
       <c r="E74" s="3" t="n">
         <f aca="false">($A$13^$A74/(FACT($B$4)*($B$4^($A74-$B$4))))*$B$5</f>
-        <v>1.889870395821705E-8</v>
+        <v>1.1313351384418786E-13</v>
       </c>
       <c r="F74" s="12" t="n">
         <v>57</v>
       </c>
       <c r="G74" s="13" t="n">
         <f aca="false">IF($A74&lt;=$B$4,D74,E74)</f>
-        <v>1.889870395821705E-8</v>
+        <v>1.1313351384418786E-13</v>
       </c>
       <c r="H74" s="14" t="n">
         <f aca="false">G74+H73</f>
-        <v>0.9999999433038879</v>
+        <v>0.9999999999998308</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2350,27 +2355,27 @@
       </c>
       <c r="B75" s="3" t="n">
         <f aca="false">B74+A$13^A75/FACT(A75)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="n">
         <f aca="false">($A$13^$A75/FACT($A75))*$B$5</f>
-        <v>6.03006089652932E-87</v>
+        <v>4.1617950763545776E-75</v>
       </c>
       <c r="E75" s="3" t="n">
         <f aca="false">($A$13^$A75/(FACT($B$4)*($B$4^($A75-$B$4))))*$B$5</f>
-        <v>1.4174027968662788E-8</v>
+        <v>6.788010830651272E-14</v>
       </c>
       <c r="F75" s="12" t="n">
         <v>58</v>
       </c>
       <c r="G75" s="13" t="n">
         <f aca="false">IF($A75&lt;=$B$4,D75,E75)</f>
-        <v>1.4174027968662788E-8</v>
+        <v>6.788010830651272E-14</v>
       </c>
       <c r="H75" s="14" t="n">
         <f aca="false">G75+H74</f>
-        <v>0.9999999574779158</v>
+        <v>0.9999999999998986</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2379,27 +2384,27 @@
       </c>
       <c r="B76" s="3" t="n">
         <f aca="false">B75+A$13^A76/FACT(A76)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="n">
         <f aca="false">($A$13^$A76/FACT($A76))*$B$5</f>
-        <v>7.66533164813049E-89</v>
+        <v>8.464667951907613E-77</v>
       </c>
       <c r="E76" s="3" t="n">
         <f aca="false">($A$13^$A76/(FACT($B$4)*($B$4^($A76-$B$4))))*$B$5</f>
-        <v>1.0630520976497091E-8</v>
+        <v>4.0728064983907624E-14</v>
       </c>
       <c r="F76" s="12" t="n">
         <v>59</v>
       </c>
       <c r="G76" s="13" t="n">
         <f aca="false">IF($A76&lt;=$B$4,D76,E76)</f>
-        <v>1.0630520976497091E-8</v>
+        <v>4.0728064983907624E-14</v>
       </c>
       <c r="H76" s="14" t="n">
         <f aca="false">G76+H75</f>
-        <v>0.9999999681084368</v>
+        <v>0.9999999999999394</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2408,27 +2413,27 @@
       </c>
       <c r="B77" s="3" t="n">
         <f aca="false">B76+A$13^A77/FACT(A77)</f>
-        <v>2.117000016612675</v>
+        <v>3.3201169227365472</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="n">
         <f aca="false">($A$13^$A77/FACT($A77))*$B$5</f>
-        <v>9.581664560163113E-91</v>
+        <v>1.692933590381523E-78</v>
       </c>
       <c r="E77" s="3" t="n">
         <f aca="false">($A$13^$A77/(FACT($B$4)*($B$4^($A77-$B$4))))*$B$5</f>
-        <v>7.972890732372818E-9</v>
+        <v>2.4436838990344575E-14</v>
       </c>
       <c r="F77" s="12" t="n">
         <v>60</v>
       </c>
       <c r="G77" s="13" t="n">
         <f aca="false">IF($A77&lt;=$B$4,D77,E77)</f>
-        <v>7.972890732372818E-9</v>
+        <v>2.4436838990344575E-14</v>
       </c>
       <c r="H77" s="14" t="n">
         <f aca="false">G77+H76</f>
-        <v>0.9999999760813275</v>
+        <v>0.9999999999999638</v>
       </c>
     </row>
   </sheetData>
